--- a/data/trans_camb/P62-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P62-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.078033355418383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2892521473256877</v>
+        <v>0.2892521473256874</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.536044429196318</v>
@@ -664,7 +664,7 @@
         <v>2.153536162763678</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9604857205372771</v>
+        <v>0.9604857205372772</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.318005282195523</v>
+        <v>-0.2962583960371861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1630838904541164</v>
+        <v>0.003356050613755098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5820480675363836</v>
+        <v>-0.5874060609772953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8810932100886802</v>
+        <v>0.8904643955819823</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.417428951886016</v>
+        <v>1.662150685044174</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04395698866210255</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6861041754802453</v>
+        <v>0.6410385044535055</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.072586438304648</v>
+        <v>0.9599825401527755</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006626468155617748</v>
+        <v>-0.03682381431620536</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.172317281719095</v>
+        <v>2.205825023345831</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.17257471811915</v>
+        <v>3.030311608695445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.82954996486013</v>
+        <v>2.119513109783808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.788847439192509</v>
+        <v>5.074987320975296</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.989690288570641</v>
+        <v>6.314112545722726</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.475822056737021</v>
+        <v>5.271134807050027</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.90931686353745</v>
+        <v>2.990606903335056</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.758108853133544</v>
+        <v>3.697589343571227</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.75569249550229</v>
+        <v>2.812104444912668</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>3.680098199381205</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9874242769856491</v>
+        <v>0.9874242769856482</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>8.297089823422636</v>
@@ -786,10 +786,10 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.2822864309551453</v>
+        <v>0.2790695721080642</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.9799326379203465</v>
+        <v>0.6228638263727571</v>
       </c>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
@@ -828,7 +828,7 @@
         <v>2.336226370884147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.886295820700275</v>
+        <v>6.886295820700278</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.916161184351036</v>
@@ -837,7 +837,7 @@
         <v>0.7211563524672726</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.43230501204651</v>
+        <v>3.432305012046511</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.971928328893081</v>
@@ -846,7 +846,7 @@
         <v>1.44969908139953</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.500483907081517</v>
+        <v>4.50048390708152</v>
       </c>
     </row>
     <row r="11">
@@ -857,31 +857,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.609335988468696</v>
+        <v>-2.50691251831739</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.797897346620292</v>
+        <v>-1.725683644657906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7120732801113776</v>
+        <v>0.1923862902632737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1646068029903083</v>
+        <v>-0.1245941861482237</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.600009667175291</v>
+        <v>-2.991637888995117</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.025738220350496</v>
+        <v>-0.7172327612265933</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1310863941030739</v>
+        <v>0.1552590079733492</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.387721886372054</v>
+        <v>-1.273913449584979</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2210831795361274</v>
+        <v>0.9235897785676258</v>
       </c>
     </row>
     <row r="12">
@@ -892,31 +892,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.78689747563925</v>
+        <v>5.548772036433518</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.39690694137646</v>
+        <v>6.51647532325471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.8056055584745</v>
+        <v>17.6963310577316</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.11464094590589</v>
+        <v>7.57517200559312</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.259017813266537</v>
+        <v>3.602952895830632</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.4983296785796</v>
+        <v>9.001095717623112</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.691522562257777</v>
+        <v>5.599466841023451</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.949747472583339</v>
+        <v>4.314215498347225</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.05956045493741</v>
+        <v>9.384579804911091</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>0.6498174108758349</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.915411527111146</v>
+        <v>1.915411527111147</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.031794872664947</v>
@@ -942,7 +942,7 @@
         <v>0.1900037796806856</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9043128068893961</v>
+        <v>0.9043128068893965</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7990471604015891</v>
@@ -962,31 +962,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4308771383742026</v>
+        <v>-0.4391591485160994</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4481312331170178</v>
+        <v>-0.3557771779001801</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4262262250669642</v>
+        <v>-0.2297163409436611</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02320628701228804</v>
+        <v>-0.1265501398489243</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5010988008470644</v>
+        <v>-0.5699989263625355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2732817305781169</v>
+        <v>-0.216854192664002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.007958048320336121</v>
+        <v>-0.01154357021725634</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3239338822486296</v>
+        <v>-0.2685434516102174</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.01369249195662756</v>
+        <v>0.145157814224264</v>
       </c>
     </row>
     <row r="15">
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.546383747639418</v>
+        <v>3.2496224395995</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.803089044178218</v>
+        <v>3.982312355616175</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.577811600775183</v>
+        <v>9.532987260134078</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.518275539364354</v>
+        <v>3.269956325938072</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.926260263421478</v>
+        <v>1.508480713576519</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.696280058508555</v>
+        <v>3.646841739021454</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.362895014887429</v>
+        <v>2.427965906427838</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.522033217228062</v>
+        <v>1.749481343211082</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.44898379384759</v>
+        <v>3.528483367023606</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         <v>3.620724816680723</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>7.877519565879276</v>
+        <v>7.877519565879274</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.167903892766019</v>
@@ -1060,7 +1060,7 @@
         <v>0.9630339004614421</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.58933632156539</v>
+        <v>6.589336321565392</v>
       </c>
     </row>
     <row r="17">
@@ -1071,31 +1071,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-32.1632286697087</v>
+        <v>-30.49630619588783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-35.30660443038526</v>
+        <v>-34.28279864775531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-25.58867006180417</v>
+        <v>-25.36090176927448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7876954849316862</v>
+        <v>0.8890485495607269</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3807620743982358</v>
+        <v>0.1405590432714775</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.461447083952007</v>
+        <v>3.670406179439027</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5122871847957936</v>
+        <v>-1.097742086493113</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.040225999430331</v>
+        <v>-3.104195568650595</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.734498424081681</v>
+        <v>1.838301431481366</v>
       </c>
     </row>
     <row r="18">
@@ -1106,31 +1106,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.630506794564243</v>
+        <v>-4.243820433713944</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.042438033521361</v>
+        <v>-9.417436596191742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.63297715588379</v>
+        <v>5.723000045679754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.641407012326335</v>
+        <v>8.654320179751178</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.774012332478819</v>
+        <v>7.220360822937801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.37108669153594</v>
+        <v>12.39238297393759</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.099197743457513</v>
+        <v>7.234082345753749</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.799509247691532</v>
+        <v>5.022878783225834</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.96479320826871</v>
+        <v>11.26457261330995</v>
       </c>
     </row>
     <row r="19">
@@ -1165,7 +1165,7 @@
         <v>0.09858360722796058</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6745354898793052</v>
+        <v>0.6745354898793054</v>
       </c>
     </row>
     <row r="20">
@@ -1176,31 +1176,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6741194168138279</v>
+        <v>-0.6675320958074643</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7535621270931824</v>
+        <v>-0.7482299728599833</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5796784285692219</v>
+        <v>-0.5622964967144226</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1017828576144119</v>
+        <v>0.1291830270299825</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01176504543136983</v>
+        <v>0.01027553510611789</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4644050769046998</v>
+        <v>0.5787548981017596</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05025000139319574</v>
+        <v>-0.1011962362159911</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2621964457660475</v>
+        <v>-0.2696277251816363</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1283806131818605</v>
+        <v>0.1586068485515997</v>
       </c>
     </row>
     <row r="21">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.163095430378022</v>
+        <v>-0.1432866475358292</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3188236649391827</v>
+        <v>-0.359165630464447</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2058485447379637</v>
+        <v>0.2259882028824562</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.500709888023929</v>
+        <v>2.493255909628635</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.215428221916798</v>
+        <v>2.090045580884051</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.464493584012483</v>
+        <v>3.61725880036294</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9416757654804717</v>
+        <v>0.9303926850190525</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6157636582535019</v>
+        <v>0.6843230371600157</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.479698487534915</v>
+        <v>1.4396575106055</v>
       </c>
     </row>
     <row r="22">
@@ -1256,7 +1256,7 @@
         <v>-27.85086416568517</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-16.23362165108249</v>
+        <v>-16.23362165108248</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.372844855896814</v>
@@ -1274,7 +1274,7 @@
         <v>-1.458779793425868</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.491921453913827</v>
+        <v>4.491921453913824</v>
       </c>
     </row>
     <row r="23">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-37.92784358050815</v>
+        <v>-38.13045974252735</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-38.56474834151463</v>
+        <v>-39.82265048618061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-28.52918318274408</v>
+        <v>-30.49404356045435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.209708383391942</v>
+        <v>-2.72538820702022</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.750321111653339</v>
+        <v>-4.539299449023165</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8714014514997559</v>
+        <v>-0.3177529232155903</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.847588796822622</v>
+        <v>-4.832962033019321</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.678731640963139</v>
+        <v>-6.641603137657361</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.76741307752658</v>
+        <v>-0.8777386049948823</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-13.05129300837776</v>
+        <v>-13.13602735364306</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-13.29196654128537</v>
+        <v>-15.20148562047313</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.077164566330075</v>
+        <v>-1.974562072808924</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.614028699619604</v>
+        <v>7.743582608880159</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.601672399675081</v>
+        <v>4.898122813808163</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.373541598357006</v>
+        <v>9.545037635713983</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.706441623458471</v>
+        <v>5.520576418349577</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.345983352957357</v>
+        <v>3.406610333892223</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.856174723948733</v>
+        <v>10.68045585088108</v>
       </c>
     </row>
     <row r="25">
@@ -1361,7 +1361,7 @@
         <v>-0.4915690664091975</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2865241879745614</v>
+        <v>-0.2865241879745612</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1992127936113967</v>
@@ -1379,7 +1379,7 @@
         <v>-0.07147430204990991</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2200859596687461</v>
+        <v>0.2200859596687459</v>
       </c>
     </row>
     <row r="26">
@@ -1390,31 +1390,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5815563727144768</v>
+        <v>-0.5816198503593055</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.611812237597451</v>
+        <v>-0.6162659130400074</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4584945600591969</v>
+        <v>-0.4647202122405403</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2242060027538743</v>
+        <v>-0.1871997766535379</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3260999190245112</v>
+        <v>-0.3126128686494564</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07752176482995907</v>
+        <v>-0.02069272694775869</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2133094757373929</v>
+        <v>-0.2152033561391423</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2833350598883958</v>
+        <v>-0.2826090814558165</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07317982404622922</v>
+        <v>-0.04104983098568776</v>
       </c>
     </row>
     <row r="27">
@@ -1425,31 +1425,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2757882249952631</v>
+        <v>-0.2702449651016302</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2963755705494343</v>
+        <v>-0.3308230182546667</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02437455929143655</v>
+        <v>-0.038985302861935</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7956455964182999</v>
+        <v>0.853643080363216</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5199929028444945</v>
+        <v>0.5328471265271902</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.018471120885713</v>
+        <v>1.016366123598228</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3204690951910096</v>
+        <v>0.3103339274010004</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1933885935910521</v>
+        <v>0.1958844832976538</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5508963493093019</v>
+        <v>0.6140686212238025</v>
       </c>
     </row>
     <row r="28">
@@ -1499,31 +1499,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-21.08771881101967</v>
+        <v>-20.29659997794349</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-20.23164965836789</v>
+        <v>-21.38469345553979</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.31926599101706</v>
+        <v>-21.01933408890707</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.950074565014404</v>
+        <v>-4.580193828344903</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.321362563966258</v>
+        <v>-2.063149703835842</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.363481201357174</v>
+        <v>1.545714779356407</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-9.157349985603069</v>
+        <v>-9.167047762642106</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.784964428975393</v>
+        <v>-6.517506773382651</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.078880551811863</v>
+        <v>-5.212390440794</v>
       </c>
     </row>
     <row r="30">
@@ -1534,31 +1534,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.765004519260074</v>
+        <v>-4.515029449709127</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.606750414591911</v>
+        <v>-4.775889453747814</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.178561126449917</v>
+        <v>-5.152444212247591</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.131775536926829</v>
+        <v>8.252538952885535</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.99315877920675</v>
+        <v>11.74241764724608</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.49524826694276</v>
+        <v>13.6975715004241</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.677220703897785</v>
+        <v>2.74191299837029</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.554931639975269</v>
+        <v>5.230627248368877</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.302200577104106</v>
+        <v>5.666883700348581</v>
       </c>
     </row>
     <row r="31">
@@ -1604,31 +1604,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2610357791861373</v>
+        <v>-0.2481490164476884</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2492213671713636</v>
+        <v>-0.262890515812412</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2523228754842004</v>
+        <v>-0.2588679294325413</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1773909642829572</v>
+        <v>-0.1700065387610518</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04774289529624097</v>
+        <v>-0.07136876856546265</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04430943136194457</v>
+        <v>0.0502138951174738</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.191543971299514</v>
+        <v>-0.1901413855006611</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1224481556123528</v>
+        <v>-0.1323623662905613</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.104432571574872</v>
+        <v>-0.1053885041387296</v>
       </c>
     </row>
     <row r="33">
@@ -1639,31 +1639,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.06557957021464257</v>
+        <v>-0.06163105372984919</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06590960508017787</v>
+        <v>-0.06600361761761607</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.07166408751957111</v>
+        <v>-0.07116462628188271</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4017131120789071</v>
+        <v>0.3944776842419155</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.592003690631406</v>
+        <v>0.5533763688542714</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6648605653309758</v>
+        <v>0.6638735072169687</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06342858493065814</v>
+        <v>0.06290157786323525</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1294641483609996</v>
+        <v>0.1239098169594168</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1249504361901996</v>
+        <v>0.1334979814702316</v>
       </c>
     </row>
     <row r="34">
@@ -1684,7 +1684,7 @@
         <v>-0.01149205824393373</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-13.02509458732417</v>
+        <v>-13.02509458732419</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>12.55933670053123</v>
@@ -1702,7 +1702,7 @@
         <v>6.405310125382302</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.432496923223892</v>
+        <v>-1.432496923223903</v>
       </c>
     </row>
     <row r="35">
@@ -1713,31 +1713,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.1368442402387209</v>
+        <v>-0.1158775877697277</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.766659113162121</v>
+        <v>-1.868970311208852</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-16.58868141617812</v>
+        <v>-16.22448312142037</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.924961595588083</v>
+        <v>5.336421248407545</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.457218067994753</v>
+        <v>4.161199724613035</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.098664325912389</v>
+        <v>1.039686259092057</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.090512121522956</v>
+        <v>2.925116825259286</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.161777586144166</v>
+        <v>2.17044574391835</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.604751152206393</v>
+        <v>-5.604969523461445</v>
       </c>
     </row>
     <row r="36">
@@ -1748,31 +1748,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.95735450803297</v>
+        <v>3.072169023490769</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.01780205145939</v>
+        <v>1.844494033964468</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-10.27467344683423</v>
+        <v>-9.575096579230777</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20.12613455132979</v>
+        <v>19.51737531405043</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>18.18449310045981</v>
+        <v>19.03693903540498</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>14.16517788789459</v>
+        <v>13.21977444173016</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.80259107218623</v>
+        <v>11.9579889608177</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.87711793861894</v>
+        <v>11.22966726157512</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.954251659201253</v>
+        <v>2.693381409437822</v>
       </c>
     </row>
     <row r="37">
@@ -1789,7 +1789,7 @@
         <v>-0.0001166669109016034</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1322302339101395</v>
+        <v>-0.1322302339101398</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.240517293037459</v>
@@ -1807,7 +1807,7 @@
         <v>0.08705637163087571</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.01946946862324202</v>
+        <v>-0.01946946862324217</v>
       </c>
     </row>
     <row r="38">
@@ -1818,31 +1818,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.001370111804305024</v>
+        <v>-0.001133062493599848</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01785821500528797</v>
+        <v>-0.01887364010360105</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1675099433471751</v>
+        <v>-0.164193250776444</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1079435485777731</v>
+        <v>0.1009959501192928</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.06422226652082068</v>
+        <v>0.07476112620081853</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01711718642681745</v>
+        <v>0.02271260496821654</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04255732760232253</v>
+        <v>0.04025804397034358</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.02838012052651638</v>
+        <v>0.02837933630227157</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07351808692160321</v>
+        <v>-0.07408842324711243</v>
       </c>
     </row>
     <row r="39">
@@ -1853,31 +1853,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.03051409323788574</v>
+        <v>0.03174082591276332</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.02063332059228615</v>
+        <v>0.01893945726637881</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1043608609206925</v>
+        <v>-0.09873255263570441</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4225810606485588</v>
+        <v>0.4057137358799026</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3755825169737426</v>
+        <v>0.3939507749150039</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2968188257835918</v>
+        <v>0.2800085139902104</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1673835802785646</v>
+        <v>0.1708251158299193</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1538631568290231</v>
+        <v>0.158421498218036</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.04213891144596837</v>
+        <v>0.03825850805298427</v>
       </c>
     </row>
     <row r="40">
@@ -1898,7 +1898,7 @@
         <v>-0.1727089717847963</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-11.40431049201525</v>
+        <v>-11.40431049201522</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.619802078966638</v>
@@ -1907,7 +1907,7 @@
         <v>0.07067229937357533</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.42520279361692</v>
+        <v>1.425202793616909</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.834082987474506</v>
@@ -1927,31 +1927,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8722632896017225</v>
+        <v>-0.8642291327356411</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.338301910417298</v>
+        <v>-1.365772690106623</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-14.86510740119507</v>
+        <v>-14.54052846347909</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.511724258924509</v>
+        <v>-4.093916364824136</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.651172628281141</v>
+        <v>-6.616841685260607</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.151251820054217</v>
+        <v>-4.12685741215897</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.75889322674113</v>
+        <v>-2.295690741800792</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.648417998931368</v>
+        <v>-4.191750403510498</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-7.076830128531911</v>
+        <v>-7.164556861352171</v>
       </c>
     </row>
     <row r="42">
@@ -1962,31 +1962,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.906493069824915</v>
+        <v>1.594867771509345</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.487240767237273</v>
+        <v>1.160160820652622</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-8.427923844070744</v>
+        <v>-8.285830553961805</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.035168708703969</v>
+        <v>9.509804708631139</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.51417143113518</v>
+        <v>7.159953197556391</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.879551559015832</v>
+        <v>7.1711083567243</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.283313290381866</v>
+        <v>6.560005596428583</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.941319709306493</v>
+        <v>4.816828474175932</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.6296371431191543</v>
+        <v>0.740425855801561</v>
       </c>
     </row>
     <row r="43">
@@ -2003,7 +2003,7 @@
         <v>-0.00173574706991662</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1146147667742493</v>
+        <v>-0.1146147667742491</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.03525861707264488</v>
@@ -2012,7 +2012,7 @@
         <v>0.0009511434322699253</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01918109766934139</v>
+        <v>0.01918109766934124</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.02184035076375553</v>
@@ -2032,31 +2032,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.008725242326264379</v>
+        <v>-0.008642856606861243</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.01338623800983012</v>
+        <v>-0.01364926028745955</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1493135038875948</v>
+        <v>-0.1460885472308303</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0575868287848094</v>
+        <v>-0.05222699358178199</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.08768938650607738</v>
+        <v>-0.08604363683003115</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.05270727477972099</v>
+        <v>-0.05239213731422648</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.03178846406518226</v>
+        <v>-0.02625911475101394</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.05385918107973111</v>
+        <v>-0.04770778826465583</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08120888866457417</v>
+        <v>-0.08275376892144168</v>
       </c>
     </row>
     <row r="45">
@@ -2067,31 +2067,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01905564379321591</v>
+        <v>0.01627262303470929</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.01509199688280298</v>
+        <v>0.0117877157934903</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.08513457465504061</v>
+        <v>-0.08405209065099975</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1276767949875055</v>
+        <v>0.1367517393013123</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1072295575617095</v>
+        <v>0.1041975613851271</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1137951156672479</v>
+        <v>0.1019407945164691</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07748147404007688</v>
+        <v>0.08107645237882476</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.06138575715017627</v>
+        <v>0.05924885998650907</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.007844475329950236</v>
+        <v>0.009984620091775498</v>
       </c>
     </row>
     <row r="46">
@@ -2130,7 +2130,7 @@
         <v>1.716372662009247</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>8.898270801375208</v>
+        <v>8.898270801375219</v>
       </c>
     </row>
     <row r="47">
@@ -2141,31 +2141,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-13.81609351277365</v>
+        <v>-14.06158419699383</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-11.76503192607882</v>
+        <v>-11.37477340905357</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.244736130209199</v>
+        <v>-3.163406476370854</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.68369144764062</v>
+        <v>1.853541421091355</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.93584930681942</v>
+        <v>2.553715753824259</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>9.724106113670841</v>
+        <v>9.766652332429585</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.171315363012059</v>
+        <v>-2.245717337791451</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.3918920595811891</v>
+        <v>-0.5049235151887937</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>6.733211911880911</v>
+        <v>6.823157814910322</v>
       </c>
     </row>
     <row r="48">
@@ -2176,31 +2176,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-6.930511136206152</v>
+        <v>-7.130845625379442</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.585571430693498</v>
+        <v>-4.551429028532269</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.327044796932399</v>
+        <v>4.368863273901816</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.982277414729235</v>
+        <v>6.874051181730362</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.046101548182815</v>
+        <v>7.991953612690196</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>14.69199125186019</v>
+        <v>14.67271255430543</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.107647536016503</v>
+        <v>1.988005855186842</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.043679754892516</v>
+        <v>3.892512093833245</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>10.87916349913714</v>
+        <v>11.21590007510061</v>
       </c>
     </row>
     <row r="49">
@@ -2226,7 +2226,7 @@
         <v>0.2251458134073246</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4957623214822283</v>
+        <v>0.4957623214822285</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.00108367206800437</v>
@@ -2235,7 +2235,7 @@
         <v>0.04819391244882102</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2498539468959841</v>
+        <v>0.2498539468959844</v>
       </c>
     </row>
     <row r="50">
@@ -2246,31 +2246,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.24769870892132</v>
+        <v>-0.2471678079782872</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.207541012415441</v>
+        <v>-0.2017446061175862</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.05784186881272262</v>
+        <v>-0.05577210722363143</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.0636618427183239</v>
+        <v>0.07366884768925001</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1157389114571196</v>
+        <v>0.09975886905076385</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3777088452967291</v>
+        <v>0.3732117827873704</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.05875224452536956</v>
+        <v>-0.06175843734886349</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.01092582831594613</v>
+        <v>-0.01360115624065132</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.184634413417668</v>
+        <v>0.1855363984327948</v>
       </c>
     </row>
     <row r="51">
@@ -2281,31 +2281,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1355371675064916</v>
+        <v>-0.1328181059250789</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.08734507117376338</v>
+        <v>-0.08610360998123907</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.08284625849344933</v>
+        <v>0.08322209451155983</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.296715720544915</v>
+        <v>0.2944766894140776</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3442761625493007</v>
+        <v>0.3417557523290339</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.6328899067957401</v>
+        <v>0.6257741573093494</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0606236080197254</v>
+        <v>0.05795705916815741</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1187641579028637</v>
+        <v>0.1124216342939077</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3179737320811191</v>
+        <v>0.327235895931056</v>
       </c>
     </row>
     <row r="52">
